--- a/horario.xlsx
+++ b/horario.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="23">
   <si>
     <t>Seg</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>Filosofia/Sociologia</t>
+  </si>
+  <si>
+    <t>INTERVALO</t>
   </si>
   <si>
     <t>Redação</t>
@@ -83,7 +86,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -100,8 +103,15 @@
     <font>
       <color rgb="FFFFFFFF"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -118,6 +128,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF93C47D"/>
+        <bgColor rgb="FF93C47D"/>
       </patternFill>
     </fill>
   </fills>
@@ -141,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -160,9 +176,12 @@
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -383,8 +402,15 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="8" max="8" width="16.29"/>
-    <col customWidth="1" min="13" max="13" width="19.86"/>
+    <col customWidth="1" min="1" max="1" width="5.43"/>
+    <col customWidth="1" min="2" max="3" width="14.57"/>
+    <col customWidth="1" min="4" max="4" width="5.43"/>
+    <col customWidth="1" min="5" max="6" width="11.71"/>
+    <col customWidth="1" min="7" max="7" width="5.43"/>
+    <col customWidth="1" min="8" max="9" width="11.71"/>
+    <col customWidth="1" min="10" max="10" width="5.43"/>
+    <col customWidth="1" min="13" max="13" width="5.43"/>
+    <col customWidth="1" min="15" max="15" width="17.57"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -532,14 +558,20 @@
       <c r="A4" s="6">
         <v>840.0</v>
       </c>
+      <c r="B4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="D4" s="6">
         <v>840.0</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" s="6">
         <v>840.0</v>
@@ -563,7 +595,7 @@
         <v>830.0</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O4" s="5" t="s">
         <v>16</v>
@@ -574,10 +606,10 @@
         <v>850.0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="6">
         <v>925.0</v>
@@ -601,13 +633,19 @@
         <v>925.0</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="8">
+        <v>20</v>
+      </c>
+      <c r="M5" s="9">
         <v>915.0</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -620,14 +658,32 @@
       <c r="C6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="9">
         <v>1010.0</v>
       </c>
-      <c r="G6" s="8">
+      <c r="E6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="9">
         <v>1010.0</v>
       </c>
-      <c r="J6" s="8">
+      <c r="H6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="9">
         <v>1010.0</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="M6" s="6">
         <v>935.0</v>
@@ -643,6 +699,12 @@
       <c r="A7" s="6">
         <v>1020.0</v>
       </c>
+      <c r="B7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="D7" s="6">
         <v>1030.0</v>
       </c>
@@ -674,7 +736,7 @@
         <v>1020.0</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O7" s="5" t="s">
         <v>9</v>
@@ -685,19 +747,19 @@
         <v>1030.0</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" s="6">
         <v>1115.0</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="G8" s="6">
         <v>1115.0</v>
@@ -724,7 +786,7 @@
         <v>9</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
@@ -741,17 +803,13 @@
         <v>1200.0</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="8">
-        <v>1200.0</v>
-      </c>
-      <c r="J9" s="8">
-        <v>1200.0</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="J9" s="4"/>
       <c r="M9" s="6">
         <v>1150.0</v>
       </c>
@@ -767,49 +825,22 @@
         <v>1200.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="8">
-        <v>1500.0</v>
-      </c>
-      <c r="G10" s="8">
-        <v>1500.0</v>
-      </c>
-      <c r="J10" s="8">
-        <v>1500.0</v>
-      </c>
-      <c r="M10" s="9">
-        <v>9999.0</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="J10" s="4"/>
     </row>
     <row r="11">
-      <c r="A11" s="9">
-        <v>9999.0</v>
-      </c>
-      <c r="D11" s="8">
-        <v>1545.0</v>
-      </c>
-      <c r="G11" s="8">
-        <v>1545.0</v>
-      </c>
-      <c r="J11" s="8">
-        <v>1545.0</v>
-      </c>
+      <c r="D11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="J11" s="4"/>
     </row>
     <row r="12">
-      <c r="A12" s="10"/>
-      <c r="D12" s="9">
-        <v>9999.0</v>
-      </c>
-      <c r="G12" s="9">
-        <v>9999.0</v>
-      </c>
-      <c r="J12" s="9">
-        <v>9999.0</v>
-      </c>
+      <c r="A12" s="11"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
